--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="148">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索ROOT部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROOT部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,42 +289,6 @@
   </si>
   <si>
     <t>所属部门6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座机11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索角色为系统管理员的用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,15 +591,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地址12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad域用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索部门为临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索ROOT部门及其子部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ROOT部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索条件3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1122,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1134,60 +1134,60 @@
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="16" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="16" width="16.375" customWidth="1"/>
     <col min="17" max="17" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>4</v>
@@ -1204,11 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
@@ -1216,23 +1218,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
         <v>15210005447</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
         <v>145</v>
       </c>
@@ -1248,10 +1248,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1262,16 +1262,14 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
@@ -1639,7 +1637,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -1671,7 +1669,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -1688,18 +1686,18 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1729,27 +1727,27 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1780,21 +1778,21 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1825,30 +1823,30 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1886,55 +1884,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>4</v>
@@ -1948,10 +1946,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1972,22 +1970,22 @@
         <v>15210005448</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
@@ -2090,34 +2088,34 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -2159,7 +2157,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -2191,7 +2189,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -2223,12 +2221,12 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -2255,15 +2253,15 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>32</v>
@@ -2285,12 +2283,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -2313,12 +2311,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -2343,12 +2341,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -2375,12 +2373,12 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -2409,15 +2407,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>32</v>
@@ -2443,15 +2441,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>32</v>
@@ -2477,15 +2475,15 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>32</v>
@@ -2509,7 +2507,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -2578,7 +2576,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="A7:XFD7 A8:XFD8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2599,7 +2597,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -2616,7 +2614,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2664,7 +2662,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -2680,11 +2678,13 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="1"/>
@@ -2694,14 +2694,14 @@
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="10"/>
@@ -2716,17 +2716,17 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
@@ -2825,10 +2825,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2837,7 +2837,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +2877,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -2928,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2949,10 +2949,10 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -2960,18 +2960,18 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2985,15 +2985,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="28.375" customWidth="1"/>
@@ -3008,7 +3008,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -3025,23 +3025,38 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3067,7 +3082,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -3084,20 +3099,20 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27">
@@ -3109,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
